--- a/credentials.xlsx
+++ b/credentials.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\vs\BankApp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA15B54A-0A7B-4F19-BE02-4B2E198600D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,18 +19,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="16" uniqueCount="10">
+  <si>
+    <t>Created by LibXL trial version 4.2.0. Please buy the LibXL full version for removing this message.</t>
+  </si>
   <si>
     <t>admin</t>
   </si>
   <si>
-    <t>Created by LibXL trial version 4.2.0. Please buy the LibXL full version for removing this message.</t>
+    <t>51974</t>
+  </si>
+  <si>
+    <t>70529</t>
   </si>
   <si>
     <t>abc</t>
   </si>
   <si>
-    <t>test</t>
+    <t>72311</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>33037</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>37219</t>
   </si>
 </sst>
 </file>
@@ -89,7 +101,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -366,23 +378,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV5"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" ht="20" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0</v>
+      </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -635,28 +653,60 @@
       <c r="IU1" s="1"/>
       <c r="IV1" s="1"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/credentials.xlsx
+++ b/credentials.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\vs\BankApp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24608114-6476-46E0-ABD5-90B1278F7FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="28" uniqueCount="19">
   <si>
     <t>Created by LibXL trial version 4.2.0. Please buy the LibXL full version for removing this message.</t>
   </si>
@@ -49,6 +55,33 @@
   </si>
   <si>
     <t>37219</t>
+  </si>
+  <si>
+    <t>adam</t>
+  </si>
+  <si>
+    <t>nowak</t>
+  </si>
+  <si>
+    <t>16856</t>
+  </si>
+  <si>
+    <t>essa</t>
+  </si>
+  <si>
+    <t>teresa</t>
+  </si>
+  <si>
+    <t>87659</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>00733</t>
+  </si>
+  <si>
+    <t>72578</t>
   </si>
 </sst>
 </file>
@@ -64,8 +97,10 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="60"/>
-      <b/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -89,19 +124,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -378,14 +419,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" ht="20" customHeight="true" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" ht="20.1" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,7 +696,7 @@
       <c r="IU1" s="1"/>
       <c r="IV1" s="1"/>
     </row>
-    <row r="2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -667,7 +710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -681,7 +724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -695,7 +738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -707,6 +750,34 @@
       </c>
       <c r="E5">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
